--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10335"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21495" windowHeight="10335"/>
   </bookViews>
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,14 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Scene" type="4" background="1" refreshedVersion="2" saveData="1">
-    <webPr parsePre="1" consecutive="1" xl2000="1" sourceData="1" xml="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlFormat="all" htmlTables="1"/>
+  <connection id="1" name="Scene" type="4" refreshedVersion="2" background="1" saveData="1">
+    <webPr xml="1" sourceData="1" parsePre="1" consecutive="1" xl2000="1" url="D:\NoahGameFrame\trunk\_Out\Server\NFDataCfg\Ini\NPC\Scene.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t>Id</t>
   </si>
@@ -249,99 +249,12 @@
   <si>
     <t>../NFDataCfg/Ini/Navigation/6.xml</t>
   </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>villageScene1000</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1027</t>
-  </si>
-  <si>
-    <t>1001</t>
-  </si>
-  <si>
-    <t>villageScene1001</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1028</t>
-  </si>
-  <si>
-    <t>1002</t>
-  </si>
-  <si>
-    <t>villageScene1002</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1029</t>
-  </si>
-  <si>
-    <t>1003</t>
-  </si>
-  <si>
-    <t>villageScene1003</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1030</t>
-  </si>
-  <si>
-    <t>1004</t>
-  </si>
-  <si>
-    <t>villageScene1004</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1031</t>
-  </si>
-  <si>
-    <t>1005</t>
-  </si>
-  <si>
-    <t>villageScene1005</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1032</t>
-  </si>
-  <si>
-    <t>1006</t>
-  </si>
-  <si>
-    <t>villageScene1006</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1033</t>
-  </si>
-  <si>
-    <t>1007</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1034</t>
-  </si>
-  <si>
-    <t>1008</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1035</t>
-  </si>
-  <si>
-    <t>1009</t>
-  </si>
-  <si>
-    <t>1000,5,1010;1020,5,1010;1030,5,1040;1040,5,1010;1010,5,1036</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -356,158 +269,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,198 +295,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="3" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -843,251 +424,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1147,57 +486,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1530,35 +822,35 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="7.5" customWidth="1"/>
-    <col min="2" max="2" width="13.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="21.5" customWidth="1"/>
-    <col min="5" max="5" width="17.1666666666667" customWidth="1"/>
+    <col min="5" max="5" width="17.125" customWidth="1"/>
     <col min="6" max="6" width="32" customWidth="1"/>
-    <col min="7" max="7" width="53.3333333333333" customWidth="1"/>
-    <col min="8" max="8" width="8.83333333333333" customWidth="1"/>
-    <col min="9" max="10" width="27.3333333333333" customWidth="1"/>
-    <col min="11" max="11" width="9.33333333333333" customWidth="1"/>
-    <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="14" width="45.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="53.375" customWidth="1"/>
+    <col min="8" max="8" width="8.875" customWidth="1"/>
+    <col min="9" max="10" width="27.375" customWidth="1"/>
+    <col min="11" max="11" width="9.375" customWidth="1"/>
+    <col min="12" max="12" width="38.375" customWidth="1"/>
+    <col min="13" max="14" width="45.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" spans="1:14" s="1" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1602,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
+    <row r="2" spans="1:14" s="2" customFormat="1">
       <c r="A2" s="8" t="s">
         <v>9</v>
       </c>
@@ -1646,7 +938,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" spans="1:14">
+    <row r="3" spans="1:14" s="2" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>16</v>
       </c>
@@ -1690,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" s="2" customFormat="1" spans="1:14">
+    <row r="4" spans="1:14" s="2" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +1026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" s="2" customFormat="1" spans="1:14">
+    <row r="5" spans="1:14" s="2" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>18</v>
       </c>
@@ -1778,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:14">
+    <row r="6" spans="1:14" s="2" customFormat="1">
       <c r="A6" s="8" t="s">
         <v>19</v>
       </c>
@@ -1822,7 +1114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" s="3" customFormat="1" spans="1:14">
+    <row r="7" spans="1:14" s="3" customFormat="1">
       <c r="A7" s="10" t="s">
         <v>20</v>
       </c>
@@ -1866,7 +1158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" spans="1:14">
+    <row r="8" spans="1:14" s="3" customFormat="1">
       <c r="A8" s="10" t="s">
         <v>21</v>
       </c>
@@ -1910,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1" spans="1:14">
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="27">
       <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
@@ -1954,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="41.25" spans="1:14">
+    <row r="10" spans="1:14" s="4" customFormat="1" ht="40.5">
       <c r="A10" s="11" t="s">
         <v>23</v>
       </c>
@@ -2290,442 +1582,105 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" spans="1:14">
-      <c r="A18" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E18" s="5">
-        <v>50</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H18" s="5">
-        <v>500</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J18" s="5">
-        <v>3</v>
-      </c>
-      <c r="K18" s="5">
-        <v>0</v>
-      </c>
-      <c r="L18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N18" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" s="5" customFormat="1" spans="1:14">
-      <c r="A19" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E19" s="5">
-        <v>50</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H19" s="5">
-        <v>500</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J19" s="5">
-        <v>3</v>
-      </c>
-      <c r="K19" s="5">
-        <v>0</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M19" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" s="5" customFormat="1" spans="1:14">
-      <c r="A20" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E20" s="5">
-        <v>50</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="H20" s="5">
-        <v>500</v>
-      </c>
-      <c r="I20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J20" s="5">
-        <v>3</v>
-      </c>
-      <c r="K20" s="5">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16" t="s">
-        <v>38</v>
-      </c>
+    <row r="18" spans="1:14" s="5" customFormat="1">
+      <c r="A18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="13"/>
+      <c r="I18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="1:14" s="5" customFormat="1">
+      <c r="A19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="13"/>
+      <c r="I19" s="15"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+    </row>
+    <row r="20" spans="1:14" s="5" customFormat="1">
+      <c r="A20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="13"/>
+      <c r="I20" s="15"/>
+      <c r="L20" s="16"/>
       <c r="M20" s="15"/>
-      <c r="N20" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" s="5" customFormat="1" spans="1:14">
-      <c r="A21" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E21" s="5">
-        <v>50</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="H21" s="5">
-        <v>500</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="5">
-        <v>3</v>
-      </c>
-      <c r="K21" s="5">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="N20" s="15"/>
+    </row>
+    <row r="21" spans="1:14" s="5" customFormat="1">
+      <c r="A21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="13"/>
+      <c r="I21" s="15"/>
+      <c r="L21" s="16"/>
       <c r="M21" s="15"/>
-      <c r="N21" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" s="5" customFormat="1" spans="1:14">
-      <c r="A22" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E22" s="5">
-        <v>50</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H22" s="5">
-        <v>500</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="5">
-        <v>3</v>
-      </c>
-      <c r="K22" s="5">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="N21" s="15"/>
+    </row>
+    <row r="22" spans="1:14" s="5" customFormat="1">
+      <c r="A22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="13"/>
+      <c r="I22" s="15"/>
+      <c r="L22" s="16"/>
       <c r="M22" s="15"/>
-      <c r="N22" s="15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" s="5" customFormat="1" spans="1:14">
-      <c r="A23" s="15" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E23" s="5">
-        <v>50</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="H23" s="5">
-        <v>500</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J23" s="5">
-        <v>3</v>
-      </c>
-      <c r="K23" s="5">
-        <v>0</v>
-      </c>
-      <c r="L23" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="N22" s="15"/>
+    </row>
+    <row r="23" spans="1:14" s="5" customFormat="1">
+      <c r="A23" s="15"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="13"/>
+      <c r="I23" s="15"/>
+      <c r="L23" s="15"/>
       <c r="M23" s="15"/>
-      <c r="N23" s="15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" s="5" customFormat="1" spans="1:14">
-      <c r="A24" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E24" s="5">
-        <v>50</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="H24" s="5">
-        <v>500</v>
-      </c>
-      <c r="I24" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J24" s="5">
-        <v>3</v>
-      </c>
-      <c r="K24" s="5">
-        <v>0</v>
-      </c>
-      <c r="L24" s="15" t="s">
-        <v>62</v>
-      </c>
+      <c r="N23" s="15"/>
+    </row>
+    <row r="24" spans="1:14" s="5" customFormat="1">
+      <c r="A24" s="15"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="13"/>
+      <c r="I24" s="15"/>
+      <c r="L24" s="15"/>
       <c r="M24" s="15"/>
-      <c r="N24" s="15" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="25" s="5" customFormat="1" spans="1:14">
-      <c r="A25" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E25" s="5">
-        <v>50</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="5">
-        <v>500</v>
-      </c>
-      <c r="I25" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J25" s="5">
-        <v>3</v>
-      </c>
-      <c r="K25" s="5">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M25" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N25" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" s="5" customFormat="1" spans="1:14">
-      <c r="A26" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D26" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="5">
-        <v>50</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H26" s="5">
-        <v>500</v>
-      </c>
-      <c r="I26" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="5">
-        <v>3</v>
-      </c>
-      <c r="K26" s="5">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="M26" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="N26" s="15" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" s="5" customFormat="1" spans="1:14">
-      <c r="A27" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D27" s="5">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="5">
-        <v>50</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="H27" s="5">
-        <v>500</v>
-      </c>
-      <c r="I27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="5">
-        <v>3</v>
-      </c>
-      <c r="K27" s="5">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16" t="s">
-        <v>38</v>
-      </c>
+      <c r="N24" s="15"/>
+    </row>
+    <row r="25" spans="1:14" s="5" customFormat="1">
+      <c r="A25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="13"/>
+      <c r="I25" s="15"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="26" spans="1:14" s="5" customFormat="1">
+      <c r="A26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="I26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="15"/>
+    </row>
+    <row r="27" spans="1:14" s="5" customFormat="1">
+      <c r="A27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="13"/>
+      <c r="I27" s="15"/>
+      <c r="L27" s="16"/>
       <c r="M27" s="15"/>
-      <c r="N27" s="15" t="s">
-        <v>47</v>
-      </c>
+      <c r="N27" s="15"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7:A9"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:I9 B7:G9 J7:L9">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/_Out/NFDataCfg/Excel/Scene.xlsx
+++ b/_Out/NFDataCfg/Excel/Scene.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Property1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -831,7 +831,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1357,7 +1357,7 @@
         <v>37</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1401,7 +1401,7 @@
         <v>37</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1443,7 +1443,7 @@
         <v>37</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K14">
         <v>0</v>
